--- a/excel/account.xlsx
+++ b/excel/account.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -28,25 +28,604 @@
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">thanhhov317212</t>
+    <t xml:space="preserve">thanhhov31122</t>
   </si>
   <si>
     <t xml:space="preserve">Thanh1982@123</t>
   </si>
   <si>
-    <t xml:space="preserve">thanhhov313893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thanhasdk1234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conmua123kh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cuoithuaasd2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cogikoha123123</t>
+    <t xml:space="preserve">thanhhov31123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanhhov31221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanh1982@222</t>
   </si>
 </sst>
 </file>
@@ -122,12 +701,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -148,10 +723,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -180,27 +755,795 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
